--- a/Graphs/ar5_シフト解析.xlsx
+++ b/Graphs/ar5_シフト解析.xlsx
@@ -9,10 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -121,17 +118,19 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>IR光なし</c:v>
+            <c:v>赤外光なし</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3055,17 +3054,19 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>IR光あり</c:v>
+            <c:v>赤外光あり</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4535,6 +4536,7 @@
                   <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -5987,9 +5989,10 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5999,11 +6002,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="807460168"/>
-        <c:axId val="807465264"/>
+        <c:axId val="1189559528"/>
+        <c:axId val="1189552472"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="807460168"/>
+        <c:axId val="1189559528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="480"/>
@@ -6040,9 +6044,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
                   <a:t>x</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="2800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6102,7 +6107,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6117,12 +6122,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="807465264"/>
+        <c:crossAx val="1189552472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="807465264"/>
+        <c:axId val="1189552472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6149,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6157,14 +6162,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6189,7 +6194,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6224,7 +6229,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6239,7 +6244,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="807460168"/>
+        <c:crossAx val="1189559528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6257,10 +6262,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8030388237669388"/>
-          <c:y val="0.19706676259376207"/>
-          <c:w val="5.7219898266578806E-2"/>
-          <c:h val="7.643700564840776E-2"/>
+          <c:x val="0.7416549615230027"/>
+          <c:y val="0.18150104188680874"/>
+          <c:w val="0.13425064508996667"/>
+          <c:h val="0.23654148558473742"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6276,7 +6281,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6917,1592 +6922,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="グラフ"/>
-      <sheetName val="11"/>
-      <sheetName val="12"/>
-      <sheetName val="13"/>
-      <sheetName val="14"/>
-      <sheetName val="15"/>
-      <sheetName val="16"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1">
-            <v>0</v>
-          </cell>
-          <cell r="C1">
-            <v>6826</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.66500000000000004</v>
-          </cell>
-          <cell r="C2">
-            <v>6624</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.33</v>
-          </cell>
-          <cell r="C3">
-            <v>6883</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.66</v>
-          </cell>
-          <cell r="C4">
-            <v>6134</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>3.3250000000000002</v>
-          </cell>
-          <cell r="C5">
-            <v>6498</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3.99</v>
-          </cell>
-          <cell r="C6">
-            <v>7002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>4.6550000000000002</v>
-          </cell>
-          <cell r="C7">
-            <v>6975</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>5.32</v>
-          </cell>
-          <cell r="C8">
-            <v>6338</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>5.6524999999999999</v>
-          </cell>
-          <cell r="C9">
-            <v>6742</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>5.9850000000000003</v>
-          </cell>
-          <cell r="C10">
-            <v>6790</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>6.3174999999999999</v>
-          </cell>
-          <cell r="C11">
-            <v>6712</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>6.65</v>
-          </cell>
-          <cell r="C12">
-            <v>7131</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>7.3150000000000004</v>
-          </cell>
-          <cell r="C13">
-            <v>6597</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>7.98</v>
-          </cell>
-          <cell r="C14">
-            <v>6611</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>9.31</v>
-          </cell>
-          <cell r="C15">
-            <v>6259</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>10.64</v>
-          </cell>
-          <cell r="C16">
-            <v>6829</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>11.0833333333333</v>
-          </cell>
-          <cell r="C17">
-            <v>6511</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>11.526666666666699</v>
-          </cell>
-          <cell r="C18">
-            <v>6524</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>11.97</v>
-          </cell>
-          <cell r="C19">
-            <v>6993</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>12.635</v>
-          </cell>
-          <cell r="C20">
-            <v>6419</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>13.3</v>
-          </cell>
-          <cell r="C21">
-            <v>6076</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>14.63</v>
-          </cell>
-          <cell r="C22">
-            <v>8098</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>15.295</v>
-          </cell>
-          <cell r="C23">
-            <v>7386</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>15.96</v>
-          </cell>
-          <cell r="C24">
-            <v>6881</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>17.29</v>
-          </cell>
-          <cell r="C25">
-            <v>7110</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>17.954999999999998</v>
-          </cell>
-          <cell r="C26">
-            <v>7050</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>18.62</v>
-          </cell>
-          <cell r="C27">
-            <v>7291</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>19.285</v>
-          </cell>
-          <cell r="C28">
-            <v>7180</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>19.95</v>
-          </cell>
-          <cell r="C29">
-            <v>6280</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>20.614999999999998</v>
-          </cell>
-          <cell r="C30">
-            <v>6522</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>21.28</v>
-          </cell>
-          <cell r="C31">
-            <v>6787</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>21.723333333333301</v>
-          </cell>
-          <cell r="C32">
-            <v>6610</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>22.1666666666667</v>
-          </cell>
-          <cell r="C33">
-            <v>6233</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>22.61</v>
-          </cell>
-          <cell r="C34">
-            <v>5776</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>23.053333333333299</v>
-          </cell>
-          <cell r="C35">
-            <v>6522</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>23.496666666666702</v>
-          </cell>
-          <cell r="C36">
-            <v>7128</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>23.94</v>
-          </cell>
-          <cell r="C37">
-            <v>7391</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>24.605</v>
-          </cell>
-          <cell r="C38">
-            <v>6151</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>25.27</v>
-          </cell>
-          <cell r="C39">
-            <v>6062</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>25.713333333333299</v>
-          </cell>
-          <cell r="C40">
-            <v>6298</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>26.156666666666698</v>
-          </cell>
-          <cell r="C41">
-            <v>7071</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>26.6</v>
-          </cell>
-          <cell r="C42">
-            <v>7647</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>27.265000000000001</v>
-          </cell>
-          <cell r="C43">
-            <v>6789</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>27.93</v>
-          </cell>
-          <cell r="C44">
-            <v>5820</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>28.373333333333299</v>
-          </cell>
-          <cell r="C45">
-            <v>6200</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>28.816666666666698</v>
-          </cell>
-          <cell r="C46">
-            <v>6756</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>29.26</v>
-          </cell>
-          <cell r="C47">
-            <v>8007</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>29.925000000000001</v>
-          </cell>
-          <cell r="C48">
-            <v>6946</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>30.59</v>
-          </cell>
-          <cell r="C49">
-            <v>5583</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>30.922499999999999</v>
-          </cell>
-          <cell r="C50">
-            <v>5965</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>31.254999999999999</v>
-          </cell>
-          <cell r="C51">
-            <v>6275</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>31.587499999999999</v>
-          </cell>
-          <cell r="C52">
-            <v>7153</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>31.92</v>
-          </cell>
-          <cell r="C53">
-            <v>8472</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>32.585000000000001</v>
-          </cell>
-          <cell r="C54">
-            <v>5988</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>33.25</v>
-          </cell>
-          <cell r="C55">
-            <v>5823</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>33.6933333333333</v>
-          </cell>
-          <cell r="C56">
-            <v>5940</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>34.136666666666599</v>
-          </cell>
-          <cell r="C57">
-            <v>7881</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>34.58</v>
-          </cell>
-          <cell r="C58">
-            <v>8062</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>35.244999999999997</v>
-          </cell>
-          <cell r="C59">
-            <v>5928</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>35.909999999999997</v>
-          </cell>
-          <cell r="C60">
-            <v>4677</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>36.353333333333303</v>
-          </cell>
-          <cell r="C61">
-            <v>5564</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>36.796666666666603</v>
-          </cell>
-          <cell r="C62">
-            <v>6396</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>37.24</v>
-          </cell>
-          <cell r="C63">
-            <v>8155</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>37.683333333333302</v>
-          </cell>
-          <cell r="C64">
-            <v>7950</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>38.126666666666601</v>
-          </cell>
-          <cell r="C65">
-            <v>5563</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>38.57</v>
-          </cell>
-          <cell r="C66">
-            <v>4938</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>38.902500000000003</v>
-          </cell>
-          <cell r="C67">
-            <v>5597</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>39.234999999999999</v>
-          </cell>
-          <cell r="C68">
-            <v>7295</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>39.567500000000003</v>
-          </cell>
-          <cell r="C69">
-            <v>8288</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>39.9</v>
-          </cell>
-          <cell r="C70">
-            <v>8724</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>40.564999999999998</v>
-          </cell>
-          <cell r="C71">
-            <v>6947</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>41.23</v>
-          </cell>
-          <cell r="C72">
-            <v>4983</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>41.5625</v>
-          </cell>
-          <cell r="C73">
-            <v>5345</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>41.895000000000003</v>
-          </cell>
-          <cell r="C74">
-            <v>6632</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>42.227499999999999</v>
-          </cell>
-          <cell r="C75">
-            <v>8306</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>42.56</v>
-          </cell>
-          <cell r="C76">
-            <v>8963</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>43.003333333333302</v>
-          </cell>
-          <cell r="C77">
-            <v>6712</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>43.446666666666601</v>
-          </cell>
-          <cell r="C78">
-            <v>5050</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>43.89</v>
-          </cell>
-          <cell r="C79">
-            <v>4748</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>44.3333333333333</v>
-          </cell>
-          <cell r="C80">
-            <v>5855</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>44.7766666666666</v>
-          </cell>
-          <cell r="C81">
-            <v>7359</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>45.22</v>
-          </cell>
-          <cell r="C82">
-            <v>9335</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>45.663333333333298</v>
-          </cell>
-          <cell r="C83">
-            <v>8447</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>46.106666666666598</v>
-          </cell>
-          <cell r="C84">
-            <v>6124</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>46.55</v>
-          </cell>
-          <cell r="C85">
-            <v>4455</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>46.816000000000003</v>
-          </cell>
-          <cell r="C86">
-            <v>4912</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>47.082000000000001</v>
-          </cell>
-          <cell r="C87">
-            <v>5764</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>47.347999999999999</v>
-          </cell>
-          <cell r="C88">
-            <v>7579</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>47.613999999999997</v>
-          </cell>
-          <cell r="C89">
-            <v>8857</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>47.88</v>
-          </cell>
-          <cell r="C90">
-            <v>9215</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>48.323333333333302</v>
-          </cell>
-          <cell r="C91">
-            <v>7316</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>48.766666666666602</v>
-          </cell>
-          <cell r="C92">
-            <v>4915</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>49.21</v>
-          </cell>
-          <cell r="C93">
-            <v>4924</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>50.54</v>
-          </cell>
-          <cell r="C94">
-            <v>4644</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>50.872500000000002</v>
-          </cell>
-          <cell r="C95">
-            <v>5872</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>51.204999999999998</v>
-          </cell>
-          <cell r="C96">
-            <v>7815</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>51.537500000000001</v>
-          </cell>
-          <cell r="C97">
-            <v>9269</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>51.87</v>
-          </cell>
-          <cell r="C98">
-            <v>9678</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>52.313333333333297</v>
-          </cell>
-          <cell r="C99">
-            <v>7042</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>52.756666666666597</v>
-          </cell>
-          <cell r="C100">
-            <v>5176</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>53.2</v>
-          </cell>
-          <cell r="C101">
-            <v>4552</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>53.466000000000001</v>
-          </cell>
-          <cell r="C102">
-            <v>5118</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>53.731999999999999</v>
-          </cell>
-          <cell r="C103">
-            <v>5270</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>53.997999999999998</v>
-          </cell>
-          <cell r="C104">
-            <v>7136</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>54.264000000000003</v>
-          </cell>
-          <cell r="C105">
-            <v>8534</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>54.53</v>
-          </cell>
-          <cell r="C106">
-            <v>9544</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>54.795999999999999</v>
-          </cell>
-          <cell r="C107">
-            <v>8551</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>55.061999999999998</v>
-          </cell>
-          <cell r="C108">
-            <v>6770</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>55.328000000000003</v>
-          </cell>
-          <cell r="C109">
-            <v>5595</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>55.594000000000001</v>
-          </cell>
-          <cell r="C110">
-            <v>4729</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>55.86</v>
-          </cell>
-          <cell r="C111">
-            <v>4640</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>56.192500000000003</v>
-          </cell>
-          <cell r="C112">
-            <v>5369</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>56.524999999999899</v>
-          </cell>
-          <cell r="C113">
-            <v>6975</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>56.857500000000002</v>
-          </cell>
-          <cell r="C114">
-            <v>7758</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>57.189999999999898</v>
-          </cell>
-          <cell r="C115">
-            <v>9454</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>57.411666666666598</v>
-          </cell>
-          <cell r="C116">
-            <v>8910</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>57.633333333333297</v>
-          </cell>
-          <cell r="C117">
-            <v>8825</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>57.854999999999897</v>
-          </cell>
-          <cell r="C118">
-            <v>6536</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>58.076666666666597</v>
-          </cell>
-          <cell r="C119">
-            <v>5044</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>58.298333333333296</v>
-          </cell>
-          <cell r="C120">
-            <v>4643</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>58.519999999999897</v>
-          </cell>
-          <cell r="C121">
-            <v>4581</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>58.785999999999902</v>
-          </cell>
-          <cell r="C122">
-            <v>5393</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>59.052</v>
-          </cell>
-          <cell r="C123">
-            <v>6696</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>59.317999999999898</v>
-          </cell>
-          <cell r="C124">
-            <v>7577</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>59.583999999999897</v>
-          </cell>
-          <cell r="C125">
-            <v>9404</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>59.849999999999902</v>
-          </cell>
-          <cell r="C126">
-            <v>10196</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>60.1159999999999</v>
-          </cell>
-          <cell r="C127">
-            <v>8761</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>60.381999999999898</v>
-          </cell>
-          <cell r="C128">
-            <v>8832</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>60.647999999999897</v>
-          </cell>
-          <cell r="C129">
-            <v>6197</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>60.913999999999902</v>
-          </cell>
-          <cell r="C130">
-            <v>4920</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>61.1799999999999</v>
-          </cell>
-          <cell r="C131">
-            <v>4756</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>61.369999999999898</v>
-          </cell>
-          <cell r="C132">
-            <v>5160</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>61.559999999999903</v>
-          </cell>
-          <cell r="C133">
-            <v>5050</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>61.749999999999901</v>
-          </cell>
-          <cell r="C134">
-            <v>6140</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>61.939999999999898</v>
-          </cell>
-          <cell r="C135">
-            <v>7399</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>62.129999999999903</v>
-          </cell>
-          <cell r="C136">
-            <v>8445</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>62.319999999999901</v>
-          </cell>
-          <cell r="C137">
-            <v>9254</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>62.509999999999899</v>
-          </cell>
-          <cell r="C138">
-            <v>10082</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>62.731666666666598</v>
-          </cell>
-          <cell r="C139">
-            <v>9604</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>62.953333333333298</v>
-          </cell>
-          <cell r="C140">
-            <v>8609</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>63.174999999999898</v>
-          </cell>
-          <cell r="C141">
-            <v>7892</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>63.396666666666597</v>
-          </cell>
-          <cell r="C142">
-            <v>6245</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>63.618333333333297</v>
-          </cell>
-          <cell r="C143">
-            <v>5130</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>63.839999999999897</v>
-          </cell>
-          <cell r="C144">
-            <v>4839</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>63.960909090908999</v>
-          </cell>
-          <cell r="C145">
-            <v>4873</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>64.081818181818093</v>
-          </cell>
-          <cell r="C146">
-            <v>5082</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>64.202727272727202</v>
-          </cell>
-          <cell r="C147">
-            <v>5169</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>64.323636363636297</v>
-          </cell>
-          <cell r="C148">
-            <v>6056</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>64.444545454545406</v>
-          </cell>
-          <cell r="C149">
-            <v>6660</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>64.5654545454545</v>
-          </cell>
-          <cell r="C150">
-            <v>7336</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>64.686363636363595</v>
-          </cell>
-          <cell r="C151">
-            <v>9179</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>64.807272727272704</v>
-          </cell>
-          <cell r="C152">
-            <v>10030</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>64.928181818181798</v>
-          </cell>
-          <cell r="C153">
-            <v>9874</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>65.049090909090907</v>
-          </cell>
-          <cell r="C154">
-            <v>10213</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>65.169999999999902</v>
-          </cell>
-          <cell r="C155">
-            <v>10242</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>65.317777777777707</v>
-          </cell>
-          <cell r="C156">
-            <v>10176</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>65.465555555555497</v>
-          </cell>
-          <cell r="C157">
-            <v>8584</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>65.613333333333301</v>
-          </cell>
-          <cell r="C158">
-            <v>7316</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>65.761111111111106</v>
-          </cell>
-          <cell r="C159">
-            <v>6591</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>65.908888888888796</v>
-          </cell>
-          <cell r="C160">
-            <v>6167</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>66.056666666666601</v>
-          </cell>
-          <cell r="C161">
-            <v>5919</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>66.204444444444405</v>
-          </cell>
-          <cell r="C162">
-            <v>5295</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>66.352222222222196</v>
-          </cell>
-          <cell r="C163">
-            <v>5156</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>66.499999999999901</v>
-          </cell>
-          <cell r="C164">
-            <v>4719</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>67.829999999999899</v>
-          </cell>
-          <cell r="C165">
-            <v>4871</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>67.918666666666596</v>
-          </cell>
-          <cell r="C166">
-            <v>4787</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>68.007333333333307</v>
-          </cell>
-          <cell r="C167">
-            <v>5263</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>68.095999999999904</v>
-          </cell>
-          <cell r="C168">
-            <v>5654</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>68.184666666666601</v>
-          </cell>
-          <cell r="C169">
-            <v>5995</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>68.273333333333298</v>
-          </cell>
-          <cell r="C170">
-            <v>6045</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>68.361999999999895</v>
-          </cell>
-          <cell r="C171">
-            <v>6680</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>68.450666666666606</v>
-          </cell>
-          <cell r="C172">
-            <v>7352</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>68.539333333333303</v>
-          </cell>
-          <cell r="C173">
-            <v>7422</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>68.627999999999901</v>
-          </cell>
-          <cell r="C174">
-            <v>7621</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>68.716666666666598</v>
-          </cell>
-          <cell r="C175">
-            <v>7850</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>68.805333333333294</v>
-          </cell>
-          <cell r="C176">
-            <v>8201</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>68.893999999999906</v>
-          </cell>
-          <cell r="C177">
-            <v>8906</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>68.982666666666603</v>
-          </cell>
-          <cell r="C178">
-            <v>8966</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>69.0713333333333</v>
-          </cell>
-          <cell r="C179">
-            <v>9121</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>69.159999999999897</v>
-          </cell>
-          <cell r="C180">
-            <v>9090</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>69.824999999999903</v>
-          </cell>
-          <cell r="C181">
-            <v>9365</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>70.489999999999895</v>
-          </cell>
-          <cell r="C182">
-            <v>9008</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>71.154999999999902</v>
-          </cell>
-          <cell r="C183">
-            <v>9714</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>71.819999999999894</v>
-          </cell>
-          <cell r="C184">
-            <v>10508</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>72.263333333333307</v>
-          </cell>
-          <cell r="C185">
-            <v>9881</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>72.706666666666607</v>
-          </cell>
-          <cell r="C186">
-            <v>9652</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>73.149999999999906</v>
-          </cell>
-          <cell r="C187">
-            <v>9596</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>74.479999999999905</v>
-          </cell>
-          <cell r="C188">
-            <v>10521</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>74.923333333333304</v>
-          </cell>
-          <cell r="C189">
-            <v>10171</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>75.366666666666603</v>
-          </cell>
-          <cell r="C190">
-            <v>10190</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>75.809999999999903</v>
-          </cell>
-          <cell r="C191">
-            <v>10371</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>76.253333333333302</v>
-          </cell>
-          <cell r="C192">
-            <v>10278</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>76.696666666666601</v>
-          </cell>
-          <cell r="C193">
-            <v>9854</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>77.139999999999901</v>
-          </cell>
-          <cell r="C194">
-            <v>9421</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>77.804999999999893</v>
-          </cell>
-          <cell r="C195">
-            <v>9978</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8792,7 +7211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
